--- a/medicine/Enfance/Jean-Claude_De_la_Royère/Jean-Claude_De_la_Royère.xlsx
+++ b/medicine/Enfance/Jean-Claude_De_la_Royère/Jean-Claude_De_la_Royère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Claude_De_la_Roy%C3%A8re</t>
+          <t>Jean-Claude_De_la_Royère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Claude De la Royère, né le 18 octobre 1952, est un auteur de bande dessinée, journaliste, rédacteur en chef, commissaire d'exposition et conservateur de musée belge. Il signe sous son nom et aussi sous les pseudonymes de Fritax ou Jesse Van Achterwiel.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Claude_De_la_Roy%C3%A8re</t>
+          <t>Jean-Claude_De_la_Royère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,29 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Claude De la Royère naît le 18 octobre 1952[1]. En mars 1977, Jean-Claude De la Royère est journaliste bénévole à More, journal de la scène musicale belge[2]. Il aborde la bande dessinée en signant les scénarios de la série humoristique Rockman[3] dessinée par Frédéric Jannin prépubliée dans le More et publiée en album par Distri BD d'André Leborgne. Les éditions de ce dernier créent le magazine de bandes dessinées Aïe ![4] à la vie éphémère en 1980, De la Royère en est le rédacteur en chef dont le mérite est de faire découvrir des auteurs comme Philippe Bercovici, Philippe Berthet, Stéphan Colman[5], Antonio Cossu, Daniel De Carpentrie, Philippe Dupuy[6], André Geerts, Frédéric Jannin, Ptiluc ou Tito tout en publiant des dessinateurs plus ou moins confirmés comme Hermann[7]. À l'arrêt de Aïe ! , De la Royère est en contact avec Gotlib car Fluide glacial est éventuellement intéressé par certaines bandes dessinées du défunt journal[6].
-Spatial (1978-1982)
-Jean-Claude De la Royère est engagé par Michel Deligne en 1980[8], il est rédacteur en chef de la revue Spatial des Éditions Michel Deligne[9] spécialisée dans le fantastique et la science-fiction d'hier et d'aujourd'hui à la périodicité bimestrielle ou trimestrielle et à la pagination variable de 80 p. à 100 p. dont 32 en couleurs. Le no 1 de janvier 1978 à no 14 en 1983[10]. Les bandes dessinées les plus importantes sont : Flash Gordon, Guerre avec Mars, Héroïc-Albums. Il édite ainsi les auteurs Mœbius, Hermann, Berthet, Jean-François Charles, Crisse (première publication)[11], Devos, Géron, Francisco Solano López, Maison, Michetz, Eddy Paape, San Millan, William Vance, Vincent Hardy, Olivier Wozniak. Il est aussi rédacteur en chef de Aventures de l'âge d'or.
-Le journal illustré le plus grand du monde (1982-1983)
-Sur une idée de Michel Deligne qui s'est inspiré du journal Junior, éditions S.P.E. qui paraissait dans les années 1930 au format 54 x 39 cm et qui a été le plus grand journal ayant jamais existé. J.C. De la Royère lance le mensuel Le journal illustré le plus grand du monde[12],[13], comme directeur de la publication de cette même maison d'édition. Celle-ci est éphémère et connaît 5 numéros : le no 1 du 1er octobre 1982 au no 5 du 1er février 1983[14].
-Ce grand journal contient des articles de fond comme tout journal se doit d'avoir du rédactionnel ainsi que de la bande dessinée inédite ou des rééditions. Jean-Claude De la Royère s'occupant de l'éditorial et de la maquette.
-Spirou
-Il fait son entrée dans Spirou avec le scénario d'un Oncle Paul pour Morelli en 1982, puis l'année suivante, il signe un gag pour Serge Honorez et dix ans plus tard, il s'associe à Nikita Mandryka pour 13 courts récits humoristiques sur les animaux. Avec la Watch Gallery[15], Jean-Claude De la Royère scénarise et parodie les célèbres séries du Spirou de l'époque, dessinés par Watch et illustrés par des dessins d'une page de 1983 à 1986[16]. L'album est publié par Récréabull en 1986 sous le titre Spirou Connection[17]. Pour Philippe Dupuy, il scénarise une histoire de sorcellerie et le rédacteur en chef Alain De Kuyssche est intéressé à la vue du premier épisode de 6 à 8 pages mais par manque de chance, il est licencié et remplacé par Philippe Vandooren qui ne reprend pas la série[6]. Il est assistant à la rédaction de Spirou à la fin des années 1980[18]. En 2001, il écrit une histoire à suivre Le Feuilleton des gens bons[19] pour Stédo.
-En 1986, il signe L'Aide-mémoire du collectionneur de bandes dessinées - Tous les albums classés par auteurs[20] aux éditions Récréabull[6]. Il publie également deux tomes de Jimmy Laventure avec Frédéric Jannin qu'il retrouve après Aïe !, Les Dents de la bouche (Dargaud, 1986) et Signé Maroilles (MC Productions, 1988). La série s'arrête prématurément à cause de problèmes d'éditeur.
-En 1989, il mène des entretiens avec Philippe Biermé publiés dans Les Cahiers de la BD[21]. En 1990, il écrit des critiques d'albums pour la même revue[22].
-Schtroumpf !
-Toujours à la fin des années 1980, pour le nouveau journal Schtroumpf ! la maquette d'Yvan Delporte estimée trop proche du Spirou des années 1960 est rejetée par Peyo. Par la suite, Jean-Claude De la Royère participe au projet et retravaille la maquette[23]. Il dirige la publication sous la férule de Thierry Culliford[24]. Il définit la ligne directrice et esthétique du magazine à destination d'un jeune lectorat conditionné par les dessins américains d’Hanna-Barbera Productions[25]. Aux côtés de Peyo et Yvan Delporte, il réalise seize nouveaux scénarios[26] de Pierrot et la Lampe aux éditions Cartoon Creation en 1992. Il sollicite André Geerts qui crée Mademoiselle Louise avec Sergio Salma[27].
-Jean-Claude De la Royère écrit l'adaptation en bande dessinée de la série Nero Wolfe pour André Taymans qui réalise le premier tome Les Compagnons de la peur et pour Philippe Wurm, amateur de romans policiers, qui dessine le second tome intitulé : La Cassette rouge dans la collection « BDétectives » aux éditions Lefrancq en 1992[28] à la suite d'André Taymans[29] et il adapte également le roman de Bernard Clavel Harricana pour le dessinateur Denis Merezette dans la collection « BDÉcrivain » aux mêmes éditions en 1992. Toujours la même année, il écrit une quinzaine de gags pour Marc Wasterlain repris dans l'album Ratapoil Maillot jaune aux éditions monégasques Marsu Productions[30].
-En 1994, il écrit le scénario d'une nouvelle série, cette fois pour adultes, intitulée Une femme dans la peau, pour le dessinateur François Walthéry, qu'il signe du pseudonyme Fritax[31] chez P &amp; T Production. Le scénario du second tome est refusé par l'éditeur[32]. Mythic prend le relai au scénario de cette série. Dans le même registre, il écrit Betty Page[33] sous le pseudonyme de Jesse Van Achterwiel pour Jaap De Boer aux éditions Astrid l'année suivante.
-En 1996, il entame une collaboration avec René Follet pour lequel il scénarise Les Autos de l’aventure des récits historiques de la marque aux chevrons. Les albums publicitaires La Passion des défis paraissent aux éditions de l’Yser et Les Fruits de la passion aux éditions Chevrons (1998)[34]. Les deux albums content la longue histoire de la marque Citroën avec son cortège d’automobiles entrées dans la légende (Traction Avant, 2 CV et DS), les participations aux premières courses automobiles, les rallyes et, les croisières noire et jaune où les mythiques véhicules traversent la Russie, l’Afrique et la Chine[35].
-Au CBBD
-Jean-Claude De la Royère est conservateur du CBBD (Centre belge de la bande dessinée[36]). En 2007, à la suite de la polémique de Tintin au Congo, il prend position et déclare « faire du politiquement correct avec de l’ancien est impossible[37]. »
-Il donne avec Jean Auquier un coup de jeune au CBBD comme commissaire d'exposition en renouvelant ses expositions permanentes de façon radicale grâce à leurs expertises[38].
-En 2018, il monte avec Yiping Luo l'exposition Panorama de la BD chinoise Des images enchaînées venues d’ailleurs[39]. Puis l'année suivante, il retrouve Marc Wasterlain qu'il connaît depuis qu'il lui a écrit quelques strips du Commissaire Bourru de 1977 à 1979 : un gag sera aussi publié dans le no 4 du Journal illustré, en 1983) et deux gags de Copabanana[30] publiés dans Félix Magazine - Le magazine du suspense en 1982 ainsi que ses participations au fanzine Quatrième de Couv' - Les amis de Marc Wasterlain[40] en 2007 et 2012.
-Il est également le commissaire de l'exposition Signé Griffo – Un dessinateur au service des scénaristes[41] en 2019.
-Après son départ à la retraite, De la Royère continue à travailler ponctuellement pour le CBBD en 2021[42].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Claude De la Royère naît le 18 octobre 1952. En mars 1977, Jean-Claude De la Royère est journaliste bénévole à More, journal de la scène musicale belge. Il aborde la bande dessinée en signant les scénarios de la série humoristique Rockman dessinée par Frédéric Jannin prépubliée dans le More et publiée en album par Distri BD d'André Leborgne. Les éditions de ce dernier créent le magazine de bandes dessinées Aïe ! à la vie éphémère en 1980, De la Royère en est le rédacteur en chef dont le mérite est de faire découvrir des auteurs comme Philippe Bercovici, Philippe Berthet, Stéphan Colman, Antonio Cossu, Daniel De Carpentrie, Philippe Dupuy, André Geerts, Frédéric Jannin, Ptiluc ou Tito tout en publiant des dessinateurs plus ou moins confirmés comme Hermann. À l'arrêt de Aïe ! , De la Royère est en contact avec Gotlib car Fluide glacial est éventuellement intéressé par certaines bandes dessinées du défunt journal.
 </t>
         </is>
       </c>
@@ -544,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean-Claude_De_la_Roy%C3%A8re</t>
+          <t>Jean-Claude_De_la_Royère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -559,41 +553,422 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Spatial (1978-1982)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Claude De la Royère est engagé par Michel Deligne en 1980, il est rédacteur en chef de la revue Spatial des Éditions Michel Deligne spécialisée dans le fantastique et la science-fiction d'hier et d'aujourd'hui à la périodicité bimestrielle ou trimestrielle et à la pagination variable de 80 p. à 100 p. dont 32 en couleurs. Le no 1 de janvier 1978 à no 14 en 1983. Les bandes dessinées les plus importantes sont : Flash Gordon, Guerre avec Mars, Héroïc-Albums. Il édite ainsi les auteurs Mœbius, Hermann, Berthet, Jean-François Charles, Crisse (première publication), Devos, Géron, Francisco Solano López, Maison, Michetz, Eddy Paape, San Millan, William Vance, Vincent Hardy, Olivier Wozniak. Il est aussi rédacteur en chef de Aventures de l'âge d'or.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean-Claude_De_la_Royère</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Claude_De_la_Roy%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Le journal illustré le plus grand du monde (1982-1983)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur une idée de Michel Deligne qui s'est inspiré du journal Junior, éditions S.P.E. qui paraissait dans les années 1930 au format 54 x 39 cm et qui a été le plus grand journal ayant jamais existé. J.C. De la Royère lance le mensuel Le journal illustré le plus grand du monde comme directeur de la publication de cette même maison d'édition. Celle-ci est éphémère et connaît 5 numéros : le no 1 du 1er octobre 1982 au no 5 du 1er février 1983.
+Ce grand journal contient des articles de fond comme tout journal se doit d'avoir du rédactionnel ainsi que de la bande dessinée inédite ou des rééditions. Jean-Claude De la Royère s'occupant de l'éditorial et de la maquette.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean-Claude_De_la_Royère</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Claude_De_la_Roy%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Spirou</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait son entrée dans Spirou avec le scénario d'un Oncle Paul pour Morelli en 1982, puis l'année suivante, il signe un gag pour Serge Honorez et dix ans plus tard, il s'associe à Nikita Mandryka pour 13 courts récits humoristiques sur les animaux. Avec la Watch Gallery, Jean-Claude De la Royère scénarise et parodie les célèbres séries du Spirou de l'époque, dessinés par Watch et illustrés par des dessins d'une page de 1983 à 1986. L'album est publié par Récréabull en 1986 sous le titre Spirou Connection. Pour Philippe Dupuy, il scénarise une histoire de sorcellerie et le rédacteur en chef Alain De Kuyssche est intéressé à la vue du premier épisode de 6 à 8 pages mais par manque de chance, il est licencié et remplacé par Philippe Vandooren qui ne reprend pas la série. Il est assistant à la rédaction de Spirou à la fin des années 1980. En 2001, il écrit une histoire à suivre Le Feuilleton des gens bons pour Stédo.
+En 1986, il signe L'Aide-mémoire du collectionneur de bandes dessinées - Tous les albums classés par auteurs aux éditions Récréabull. Il publie également deux tomes de Jimmy Laventure avec Frédéric Jannin qu'il retrouve après Aïe !, Les Dents de la bouche (Dargaud, 1986) et Signé Maroilles (MC Productions, 1988). La série s'arrête prématurément à cause de problèmes d'éditeur.
+En 1989, il mène des entretiens avec Philippe Biermé publiés dans Les Cahiers de la BD. En 1990, il écrit des critiques d'albums pour la même revue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean-Claude_De_la_Royère</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Claude_De_la_Roy%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Schtroumpf !</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toujours à la fin des années 1980, pour le nouveau journal Schtroumpf ! la maquette d'Yvan Delporte estimée trop proche du Spirou des années 1960 est rejetée par Peyo. Par la suite, Jean-Claude De la Royère participe au projet et retravaille la maquette. Il dirige la publication sous la férule de Thierry Culliford. Il définit la ligne directrice et esthétique du magazine à destination d'un jeune lectorat conditionné par les dessins américains d’Hanna-Barbera Productions. Aux côtés de Peyo et Yvan Delporte, il réalise seize nouveaux scénarios de Pierrot et la Lampe aux éditions Cartoon Creation en 1992. Il sollicite André Geerts qui crée Mademoiselle Louise avec Sergio Salma.
+Jean-Claude De la Royère écrit l'adaptation en bande dessinée de la série Nero Wolfe pour André Taymans qui réalise le premier tome Les Compagnons de la peur et pour Philippe Wurm, amateur de romans policiers, qui dessine le second tome intitulé : La Cassette rouge dans la collection « BDétectives » aux éditions Lefrancq en 1992 à la suite d'André Taymans et il adapte également le roman de Bernard Clavel Harricana pour le dessinateur Denis Merezette dans la collection « BDÉcrivain » aux mêmes éditions en 1992. Toujours la même année, il écrit une quinzaine de gags pour Marc Wasterlain repris dans l'album Ratapoil Maillot jaune aux éditions monégasques Marsu Productions.
+En 1994, il écrit le scénario d'une nouvelle série, cette fois pour adultes, intitulée Une femme dans la peau, pour le dessinateur François Walthéry, qu'il signe du pseudonyme Fritax chez P &amp; T Production. Le scénario du second tome est refusé par l'éditeur. Mythic prend le relai au scénario de cette série. Dans le même registre, il écrit Betty Page sous le pseudonyme de Jesse Van Achterwiel pour Jaap De Boer aux éditions Astrid l'année suivante.
+En 1996, il entame une collaboration avec René Follet pour lequel il scénarise Les Autos de l’aventure des récits historiques de la marque aux chevrons. Les albums publicitaires La Passion des défis paraissent aux éditions de l’Yser et Les Fruits de la passion aux éditions Chevrons (1998). Les deux albums content la longue histoire de la marque Citroën avec son cortège d’automobiles entrées dans la légende (Traction Avant, 2 CV et DS), les participations aux premières courses automobiles, les rallyes et, les croisières noire et jaune où les mythiques véhicules traversent la Russie, l’Afrique et la Chine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jean-Claude_De_la_Royère</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Claude_De_la_Roy%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Au CBBD</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Claude De la Royère est conservateur du CBBD (Centre belge de la bande dessinée). En 2007, à la suite de la polémique de Tintin au Congo, il prend position et déclare « faire du politiquement correct avec de l’ancien est impossible. »
+Il donne avec Jean Auquier un coup de jeune au CBBD comme commissaire d'exposition en renouvelant ses expositions permanentes de façon radicale grâce à leurs expertises.
+En 2018, il monte avec Yiping Luo l'exposition Panorama de la BD chinoise Des images enchaînées venues d’ailleurs. Puis l'année suivante, il retrouve Marc Wasterlain qu'il connaît depuis qu'il lui a écrit quelques strips du Commissaire Bourru de 1977 à 1979 : un gag sera aussi publié dans le no 4 du Journal illustré, en 1983) et deux gags de Copabanana publiés dans Félix Magazine - Le magazine du suspense en 1982 ainsi que ses participations au fanzine Quatrième de Couv' - Les amis de Marc Wasterlain en 2007 et 2012.
+Il est également le commissaire de l'exposition Signé Griffo – Un dessinateur au service des scénaristes en 2019.
+Après son départ à la retraite, De la Royère continue à travailler ponctuellement pour le CBBD en 2021.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jean-Claude_De_la_Royère</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Claude_De_la_Roy%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Publications
-Spirou Connection, Récréabull, Bruxelles, octobre 1986Scénario : Jean-Claude De la Royère - Dessin et couleurs : Watch -  (ISBN 2871820309),Préface : Yvan Delporte.
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Spirou Connection, Récréabull, Bruxelles, octobre 1986Scénario : Jean-Claude De la Royère - Dessin et couleurs : Watch -  (ISBN 2871820309),Préface : Yvan Delporte.
 3 La Revanche de Rockman, Distri BD, coll. « BéDéBile », Bruxelles, 1979Scénario : Jean-Claude De la Royère - Dessin : Frédéric Jannin - Couleurs : noir et blanc
 Pierrot et la Lampe, Cartoon Creation, Bruxelles, octobre 1991Scénario : Peyo, Yvan Delporte, Jean-Claude De la Royère - Dessin : Peyo, Éric Closter, Philippe Delzenne - Couleurs : quadrichromie -  (ISBN 2873450223)
 Cosmos Milady, P &amp; T Production, coll. « BD-Clip », Bruxelles, 1993Scénario : Jean-Claude De la Royère - Dessin : Crisse - Couleurs : Anyk -  (ISBN 2-87265-016-4)
 1 Une femme dans la peau, P &amp; T Production, Bruxelles, décembre 1994Scénario : Fritax - Dessin : Georges Van Linthout, François Walthéry - Couleurs : Georges Van Linthout -  (ISBN 2872650296)
 1 Betty Page, Astrid, décembre 1995Scénario : Jesse Van Achterwiel - Dessin et couleurs : Jaap De Boer -  (ISBN 2-385-00001-6)
-Jannin et nous... trop de tout, Lamiroy, Bruxelles, septembre 2015Scénario : Jean-Claude De la Royère - Dessin et couleurs : Frédéric Jannin -  (ISBN 978-2-87595-052-9)
-Journaux et revues
-Félix Magazine - Le magazine du suspense
-2 Copabanana[30],[45], Deligne, Bruxelles, 1982Scénario : Jean-Claude De la Royère - Dessin : Marc Wasterlain - Couleurs : Jacqueline Benn(1 planche)
-3 Copabanana[46], Deligne, Bruxelles, 1982Scénario : Jean-Claude De la Royère - Dessin : Marc Wasterlain - Couleurs : Jacqueline Benn(1 planche)
-Quatrième de Couv'
-Quatrième de Couv'[40] Les amis de Marc Wasterlain, no 1, Morlanwelz, décembre 2007
-Quatrième de Couv' Les amis de Marc Wasterlain, no 9[47], Morlanwelz, 2012
-Quatrième de Couv' Les amis de Marc Wasterlain, no 10[40], Morlanwelz, juin 2012
-La Crypte tonique
-no 6 Qui mène la danse[48] ?
-Littérature jeunesse
-Image par image
+Jannin et nous... trop de tout, Lamiroy, Bruxelles, septembre 2015Scénario : Jean-Claude De la Royère - Dessin et couleurs : Frédéric Jannin -  (ISBN 978-2-87595-052-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jean-Claude_De_la_Royère</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Claude_De_la_Roy%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Journaux et revues</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Félix Magazine - Le magazine du suspense</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2 Copabanana Deligne, Bruxelles, 1982Scénario : Jean-Claude De la Royère - Dessin : Marc Wasterlain - Couleurs : Jacqueline Benn(1 planche)
+3 Copabanana, Deligne, Bruxelles, 1982Scénario : Jean-Claude De la Royère - Dessin : Marc Wasterlain - Couleurs : Jacqueline Benn(1 planche)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jean-Claude_De_la_Royère</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Claude_De_la_Roy%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Journaux et revues</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Quatrième de Couv'</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Quatrième de Couv' Les amis de Marc Wasterlain, no 1, Morlanwelz, décembre 2007
+Quatrième de Couv' Les amis de Marc Wasterlain, no 9, Morlanwelz, 2012
+Quatrième de Couv' Les amis de Marc Wasterlain, no 10, Morlanwelz, juin 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jean-Claude_De_la_Royère</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Claude_De_la_Roy%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Journaux et revues</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>La Crypte tonique</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>no 6 Qui mène la danse ?</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jean-Claude_De_la_Royère</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Claude_De_la_Roy%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Image par image
 1 L'Histoire de Cendrillon, Hemma, Chevron, 1992Scénario : Jean-Claude De la Royère  - Dessin : José Cubero - Couleurs : quadrichromie -  (ISBN 2800622016),Lettrage : Frank Brichau
 2 L'Histoire du petit Chaperon Rouge, Hemma, Chevron, 1992Scénario : Jean-Claude De la Royère  - Dessin : José Cubero - Couleurs : quadrichromie -  (ISBN 2800622024),Lettrage : Frank Brichau
 3 L'Histoire de Blanche-Neige et les 7 nains, Hemma, Chevron, 1992Scénario : Jean-Claude De la Royère  - Dessin : José Cubero - Couleurs : quadrichromie -  (ISBN 2800622008),Lettrage : Frank Brichau
-4 L'Histoire du Petit Poucet, Hemma, Chevron, 1992Scénario : Jean-Claude De la Royère - Dessin : José Cubero - Couleurs : quadrichromie -  (ISBN 978-2-8006-2199-9),D'après l'œuvre originale de Charles Perrault. Lettrage : Frank Brichau
-Commissariat d'exposition
-François Walthéry 50 ans de BD, Centre belge de la bande dessinée, Bruxelles du 9 octobre 2012 au 24 février 2013[49],[50].
-Spirou de main en main[51], CBBD, Bruxelles du 23 avril au 4 novembre 2013.
-Panorama de la BD chinoise Des images enchaînées venues d’ailleurs[39] avec Yiping LUO, CBBD, Bruxelles du 13 février au 9 septembre 2018.
-Héroïnes au bout du crayon[52] avec Mélanie Andrieu du 19 juin au 25 novembre 2018.
-Signé Griffo – Un dessinateur au service des scénaristes[41] du 11 juin au 24 novembre 2019.</t>
+4 L'Histoire du Petit Poucet, Hemma, Chevron, 1992Scénario : Jean-Claude De la Royère - Dessin : José Cubero - Couleurs : quadrichromie -  (ISBN 978-2-8006-2199-9),D'après l'œuvre originale de Charles Perrault. Lettrage : Frank Brichau</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Jean-Claude_De_la_Royère</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Claude_De_la_Roy%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Commissariat d'exposition</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>François Walthéry 50 ans de BD, Centre belge de la bande dessinée, Bruxelles du 9 octobre 2012 au 24 février 2013,.
+Spirou de main en main, CBBD, Bruxelles du 23 avril au 4 novembre 2013.
+Panorama de la BD chinoise Des images enchaînées venues d’ailleurs avec Yiping LUO, CBBD, Bruxelles du 13 février au 9 septembre 2018.
+Héroïnes au bout du crayon avec Mélanie Andrieu du 19 juin au 25 novembre 2018.
+Signé Griffo – Un dessinateur au service des scénaristes du 11 juin au 24 novembre 2019.</t>
         </is>
       </c>
     </row>
